--- a/dados_1990.xlsx
+++ b/dados_1990.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeichiTS\Documents\MEGA\Pessoais\Rn222_Fosfogesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91249798-71EA-40E7-8599-A5A4B8E5C7FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B20D5-82BF-48FE-8918-C9E1CFD92557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="108" windowWidth="11688" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,399 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>1990 1 22 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 23 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 24 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 25 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 26 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 27 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 28 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 29 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 30 0 0</t>
-  </si>
-  <si>
-    <t>1990 1 31 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 1 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 2 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 3 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 4 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 5 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 6 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 7 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 8 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 9 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 10 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 11 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 12 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 13 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 14 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 15 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 16 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 17 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 18 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 19 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 20 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 21 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 22 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 23 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 24 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 25 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 26 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 27 0 0</t>
-  </si>
-  <si>
-    <t>1990 2 28 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 1 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 2 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 3 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 4 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 5 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 6 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 7 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 8 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 9 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 10 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 11 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 12 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 13 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 14 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 15 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 16 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 17 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 18 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 19 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 20 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 21 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 22 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 23 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 24 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 25 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 26 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 27 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 28 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 29 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 30 0 0</t>
-  </si>
-  <si>
-    <t>1990 3 31 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 1 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 2 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 3 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 4 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 5 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 6 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 7 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 8 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 9 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 10 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 11 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 12 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 13 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 14 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 15 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 16 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 17 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 18 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 19 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 20 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 21 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 22 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 23 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 24 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 25 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 26 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 27 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 28 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 29 0 0</t>
-  </si>
-  <si>
-    <t>1990 4 30 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 1 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 2 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 3 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 4 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 5 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 6 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 7 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 8 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 9 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 10 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 11 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 12 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 13 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 14 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 15 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 16 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 17 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 18 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 19 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 20 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 21 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 22 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 23 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 24 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 25 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 26 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 27 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 28 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 29 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 30 0 0</t>
-  </si>
-  <si>
-    <t>1990 5 31 0 0</t>
   </si>
   <si>
     <t>1990 6 1 0 0</t>
@@ -1061,7 +671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,6 +683,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1110,11 +728,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,90 +1036,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A345"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2500,657 +2120,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>344</v>
-      </c>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>